--- a/xlsx/builtin/资深玩家再进化1.xlsx
+++ b/xlsx/builtin/资深玩家再进化1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PuzzleSister\xlsx\builtin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28035" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DLC" sheetId="1" r:id="rId1"/>
@@ -639,9 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巫师三中GERALT每次召妓后，会发生什么</t>
-  </si>
-  <si>
     <t>不穿衣服</t>
   </si>
   <si>
@@ -909,9 +901,6 @@
     <t>第三关的桥下面</t>
   </si>
   <si>
-    <t>收集是个蛋</t>
-  </si>
-  <si>
     <t>最后一关倒着走</t>
   </si>
   <si>
@@ -1261,9 +1250,6 @@
     <t>完全挡住子弹</t>
   </si>
   <si>
-    <t>绝地求生中平地锅为什么能挡子弹</t>
-  </si>
-  <si>
     <t>信仰</t>
   </si>
   <si>
@@ -1660,15 +1646,9 @@
     <t xml:space="preserve">香蕉 </t>
   </si>
   <si>
-    <t>裂空</t>
-  </si>
-  <si>
     <t>竹子</t>
   </si>
   <si>
-    <t>最爱吃裂空什么鬼啦</t>
-  </si>
-  <si>
     <t>守望先锋中天使的年龄是多少</t>
   </si>
   <si>
@@ -1979,9 +1959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">啊Q </t>
-  </si>
-  <si>
     <t>闰土</t>
   </si>
   <si>
@@ -2397,9 +2374,6 @@
     <t>挺有意思的一句话</t>
   </si>
   <si>
-    <t>英雄联盟中英雄联盟的大乱斗模式中中如何制造出不一样的魄罗</t>
-  </si>
-  <si>
     <t>用布隆喂魄罗</t>
   </si>
   <si>
@@ -2512,6 +2486,31 @@
   </si>
   <si>
     <t>会吃掉一些约德尔人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎空</t>
+  </si>
+  <si>
+    <t>最爱吃猎空什么鬼啦</t>
+  </si>
+  <si>
+    <t>巫师三中杰洛特每次召妓后，会发生什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿Q </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集10个蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地求生中平底锅为什么能挡子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟中英雄联盟的大乱斗模式中如何制造出不一样的魄罗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4140,11 +4139,11 @@
   </sheetPr>
   <dimension ref="A1:IY23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1"/>
@@ -4462,8 +4461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="35.25" customHeight="1"/>
@@ -4535,25 +4534,25 @@
         <v>128</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>715</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="37" t="s">
         <v>140</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="35.25" customHeight="1">
@@ -4561,25 +4560,25 @@
         <v>12</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="D4" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="F4" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>146</v>
-      </c>
       <c r="G4" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>148</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="35.25" customHeight="1">
@@ -4587,25 +4586,25 @@
         <v>23</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="H5" s="35" t="s">
         <v>155</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="35.25" customHeight="1">
@@ -4613,25 +4612,25 @@
         <v>24</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="D6" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="E6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="F6" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>161</v>
-      </c>
       <c r="G6" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1">
@@ -4639,25 +4638,25 @@
         <v>25</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="D7" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>168</v>
-      </c>
       <c r="F7" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>170</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="35.25" customHeight="1">
@@ -4665,25 +4664,25 @@
         <v>26</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="G8" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>176</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="35.25" customHeight="1">
@@ -4691,25 +4690,25 @@
         <v>27</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="F9" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="G9" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>183</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="35.25" customHeight="1">
@@ -4717,7 +4716,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="38">
         <v>30</v>
@@ -4732,10 +4731,10 @@
         <v>46</v>
       </c>
       <c r="G10" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="38" t="s">
         <v>186</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="35.25" customHeight="1">
@@ -4743,25 +4742,25 @@
         <v>29</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="D11" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="E11" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="F11" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="G11" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="H11" s="38" t="s">
         <v>193</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="35.25" customHeight="1">
@@ -4769,25 +4768,25 @@
         <v>30</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="F12" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="G12" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>200</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="35.25" customHeight="1">
@@ -4795,25 +4794,25 @@
         <v>31</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E13" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="F13" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="G13" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>206</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="35.25" customHeight="1">
@@ -4821,25 +4820,25 @@
         <v>32</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="F14" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="G14" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="35.25" customHeight="1">
@@ -4847,7 +4846,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="38">
         <v>16</v>
@@ -4862,10 +4861,10 @@
         <v>24</v>
       </c>
       <c r="G15" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>214</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="35.25" customHeight="1">
@@ -4873,25 +4872,25 @@
         <v>34</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="F16" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="G16" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="35.25" customHeight="1">
@@ -4899,25 +4898,25 @@
         <v>35</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="E17" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="F17" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="G17" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="35.25" customHeight="1">
@@ -4925,25 +4924,25 @@
         <v>36</v>
       </c>
       <c r="B18" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="E18" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="F18" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="G18" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="35.25" customHeight="1">
@@ -4951,25 +4950,25 @@
         <v>37</v>
       </c>
       <c r="B19" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="E19" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="G19" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="H19" s="35" t="s">
         <v>238</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="35.25" customHeight="1">
@@ -4977,25 +4976,25 @@
         <v>38</v>
       </c>
       <c r="B20" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="35" t="s">
+      <c r="F20" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="G20" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="H20" s="35" t="s">
         <v>244</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="35.25" customHeight="1">
@@ -5003,25 +5002,25 @@
         <v>39</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="E21" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="F21" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="G21" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>250</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="35.25" customHeight="1">
@@ -5029,25 +5028,25 @@
         <v>40</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="E22" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="F22" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="G22" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="H22" s="35" t="s">
         <v>257</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="35.25" customHeight="1">
@@ -5055,25 +5054,25 @@
         <v>41</v>
       </c>
       <c r="B23" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="E23" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="F23" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="G23" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23" s="35" t="s">
         <v>263</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="35.25" customHeight="1">
@@ -5081,25 +5080,25 @@
         <v>42</v>
       </c>
       <c r="B24" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="E24" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="F24" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="G24" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="35" t="s">
         <v>269</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="35.25" customHeight="1">
@@ -5107,25 +5106,25 @@
         <v>43</v>
       </c>
       <c r="B25" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="E25" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="F25" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="G25" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="H25" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="35.25" customHeight="1">
@@ -5133,25 +5132,25 @@
         <v>44</v>
       </c>
       <c r="B26" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="E26" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="F26" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="G26" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>282</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="35.25" customHeight="1">
@@ -5159,25 +5158,25 @@
         <v>45</v>
       </c>
       <c r="B27" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="E27" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="F27" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="G27" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>288</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="35.25" customHeight="1">
@@ -5185,25 +5184,25 @@
         <v>46</v>
       </c>
       <c r="B28" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="E28" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="F28" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="G28" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="H28" s="35" t="s">
         <v>295</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="35.25" customHeight="1">
@@ -5211,25 +5210,25 @@
         <v>47</v>
       </c>
       <c r="B29" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="E29" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="F29" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="G29" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="35.25" customHeight="1">
@@ -5237,7 +5236,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C30" s="35">
         <v>40</v>
@@ -5252,10 +5251,10 @@
         <v>70</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="35.25" customHeight="1">
@@ -5263,25 +5262,25 @@
         <v>49</v>
       </c>
       <c r="B31" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="E31" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="F31" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="G31" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="35" t="s">
         <v>309</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="35.25" customHeight="1">
@@ -5289,7 +5288,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C32" s="38">
         <v>5</v>
@@ -5304,10 +5303,10 @@
         <v>8</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="35.25" customHeight="1">
@@ -5315,25 +5314,25 @@
         <v>51</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="E33" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="F33" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="G33" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>317</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="35.25" customHeight="1">
@@ -5341,25 +5340,25 @@
         <v>52</v>
       </c>
       <c r="B34" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="E34" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="F34" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="G34" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>323</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="35.25" customHeight="1">
@@ -5367,25 +5366,25 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="E35" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="F35" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="G35" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="35" t="s">
         <v>329</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="35.25" customHeight="1">
@@ -5393,25 +5392,25 @@
         <v>54</v>
       </c>
       <c r="B36" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="F36" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="G36" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H36" s="35" t="s">
         <v>334</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="35.25" customHeight="1">
@@ -5419,25 +5418,25 @@
         <v>55</v>
       </c>
       <c r="B37" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="F37" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="G37" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="35" t="s">
         <v>340</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="35.25" customHeight="1">
@@ -5445,25 +5444,25 @@
         <v>56</v>
       </c>
       <c r="B38" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="F38" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="G38" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="H38" s="35" t="s">
         <v>347</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="35.25" customHeight="1">
@@ -5471,25 +5470,25 @@
         <v>57</v>
       </c>
       <c r="B39" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="F39" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="G39" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="H39" s="35" t="s">
         <v>354</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="35.25" customHeight="1">
@@ -5497,25 +5496,25 @@
         <v>58</v>
       </c>
       <c r="B40" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="F40" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="G40" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="H40" s="35" t="s">
         <v>361</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="35.25" customHeight="1">
@@ -5523,25 +5522,25 @@
         <v>59</v>
       </c>
       <c r="B41" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="F41" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="G41" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>367</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="35.25" customHeight="1">
@@ -5549,25 +5548,25 @@
         <v>60</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="F42" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="G42" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="35.25" customHeight="1">
@@ -5575,25 +5574,25 @@
         <v>61</v>
       </c>
       <c r="B43" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="F43" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="G43" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>379</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="35.25" customHeight="1">
@@ -5601,25 +5600,25 @@
         <v>62</v>
       </c>
       <c r="B44" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="F44" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="G44" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H44" s="37" t="s">
         <v>385</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="35.25" customHeight="1">
@@ -5627,25 +5626,25 @@
         <v>63</v>
       </c>
       <c r="B45" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="F45" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="G45" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="H45" s="35" t="s">
         <v>391</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="35.25" customHeight="1">
@@ -5653,7 +5652,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C46" s="38">
         <v>20</v>
@@ -5668,10 +5667,10 @@
         <v>99</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="35.25" customHeight="1">
@@ -5679,7 +5678,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C47" s="38">
         <v>20</v>
@@ -5694,10 +5693,10 @@
         <v>99</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="35.25" customHeight="1">
@@ -5705,7 +5704,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C48" s="38">
         <v>5</v>
@@ -5720,10 +5719,10 @@
         <v>99</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="35.25" customHeight="1">
@@ -5731,25 +5730,25 @@
         <v>67</v>
       </c>
       <c r="B49" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="F49" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="G49" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="H49" s="35" t="s">
         <v>406</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="35.25" customHeight="1">
@@ -5757,25 +5756,25 @@
         <v>68</v>
       </c>
       <c r="B50" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="F50" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="G50" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>412</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="35.25" customHeight="1">
@@ -5783,25 +5782,25 @@
         <v>69</v>
       </c>
       <c r="B51" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="F51" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="G51" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="H51" s="38" t="s">
         <v>419</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>421</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="35.25" customHeight="1">
@@ -5809,25 +5808,25 @@
         <v>70</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="F52" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="G52" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="H52" s="35" t="s">
         <v>426</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>428</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="35.25" customHeight="1">
@@ -5835,25 +5834,25 @@
         <v>71</v>
       </c>
       <c r="B53" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="F53" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="G53" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="H53" s="37" t="s">
         <v>432</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="35.25" customHeight="1">
@@ -5861,25 +5860,25 @@
         <v>72</v>
       </c>
       <c r="B54" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="E54" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="F54" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="G54" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="H54" s="35" t="s">
         <v>438</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="35.25" customHeight="1">
@@ -5887,25 +5886,25 @@
         <v>73</v>
       </c>
       <c r="B55" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="E55" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="F55" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="G55" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="H55" s="39" t="s">
         <v>445</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="35.25" customHeight="1">
@@ -5913,25 +5912,25 @@
         <v>74</v>
       </c>
       <c r="B56" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="39" t="s">
         <v>449</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>450</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="35.25" customHeight="1">
@@ -5939,25 +5938,25 @@
         <v>75</v>
       </c>
       <c r="B57" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>451</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="F57" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>454</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>455</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="F57" s="39" t="s">
-        <v>457</v>
-      </c>
       <c r="G57" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>458</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="35.25" customHeight="1">
@@ -5965,7 +5964,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C58" s="38">
         <v>10</v>
@@ -5980,10 +5979,10 @@
         <v>17</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="35.25" customHeight="1">
@@ -5991,22 +5990,22 @@
         <v>77</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H59" s="41">
         <v>41510</v>
@@ -6017,25 +6016,25 @@
         <v>78</v>
       </c>
       <c r="B60" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="35" t="s">
         <v>466</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="G60" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H60" s="35" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="35.25" customHeight="1">
@@ -6043,7 +6042,7 @@
         <v>79</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C61" s="38">
         <v>90</v>
@@ -6058,10 +6057,10 @@
         <v>50</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="35.25" customHeight="1">
@@ -6069,25 +6068,25 @@
         <v>80</v>
       </c>
       <c r="B62" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="G62" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="35" t="s">
         <v>474</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="F62" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="G62" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="H62" s="35" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="35.25" customHeight="1">
@@ -6095,25 +6094,25 @@
         <v>81</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="H63" s="35" t="s">
         <v>481</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="35.25" customHeight="1">
@@ -6121,25 +6120,25 @@
         <v>82</v>
       </c>
       <c r="B64" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="H64" s="35" t="s">
         <v>488</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G64" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="H64" s="35" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="35.25" customHeight="1">
@@ -6147,7 +6146,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C65" s="38">
         <v>20</v>
@@ -6162,10 +6161,10 @@
         <v>99</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="35.25" customHeight="1">
@@ -6173,25 +6172,25 @@
         <v>84</v>
       </c>
       <c r="B66" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="G66" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="H66" s="37" t="s">
         <v>497</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>500</v>
-      </c>
-      <c r="G66" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="35.25" customHeight="1">
@@ -6199,25 +6198,25 @@
         <v>85</v>
       </c>
       <c r="B67" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="F67" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="H67" s="35" t="s">
         <v>504</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="F67" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="G67" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="35.25" customHeight="1">
@@ -6225,25 +6224,25 @@
         <v>86</v>
       </c>
       <c r="B68" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="G68" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="35" t="s">
         <v>510</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="F68" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="G68" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="35.25" customHeight="1">
@@ -6251,25 +6250,25 @@
         <v>87</v>
       </c>
       <c r="B69" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="G69" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" s="37" t="s">
         <v>516</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="E69" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="G69" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="35.25" customHeight="1">
@@ -6277,25 +6276,25 @@
         <v>88</v>
       </c>
       <c r="B70" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="G70" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H70" s="35" t="s">
         <v>522</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="F70" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="G70" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="H70" s="35" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="35.25" customHeight="1">
@@ -6303,25 +6302,25 @@
         <v>89</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="35.25" customHeight="1">
@@ -6329,25 +6328,25 @@
         <v>90</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C72" s="38">
         <v>2012</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F72" s="38">
         <v>4.1100000000000003</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="35.25" customHeight="1">
@@ -6355,25 +6354,25 @@
         <v>91</v>
       </c>
       <c r="B73" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="G73" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="H73" s="35" t="s">
         <v>536</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>539</v>
-      </c>
-      <c r="F73" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="G73" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="35.25" customHeight="1">
@@ -6381,25 +6380,25 @@
         <v>92</v>
       </c>
       <c r="B74" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="H74" s="35" t="s">
         <v>542</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="F74" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="G74" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="35.25" customHeight="1">
@@ -6407,25 +6406,25 @@
         <v>93</v>
       </c>
       <c r="B75" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="C75" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="G75" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="H75" s="35" t="s">
         <v>549</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>552</v>
-      </c>
-      <c r="G75" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="35.25" customHeight="1">
@@ -6433,25 +6432,25 @@
         <v>94</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>556</v>
+        <v>716</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G76" s="38" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="35.25" customHeight="1">
@@ -6459,25 +6458,25 @@
         <v>95</v>
       </c>
       <c r="B77" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>559</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="H77" s="35" t="s">
         <v>561</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>564</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>565</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="35.25" customHeight="1">
@@ -6485,25 +6484,25 @@
         <v>96</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="35.25" customHeight="1">
@@ -6511,25 +6510,25 @@
         <v>97</v>
       </c>
       <c r="B79" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="F79" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="H79" s="35" t="s">
         <v>574</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>575</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>576</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>577</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>578</v>
-      </c>
-      <c r="G79" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="H79" s="35" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="35.25" customHeight="1">
@@ -6537,25 +6536,25 @@
         <v>98</v>
       </c>
       <c r="B80" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="F80" s="35" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="H80" s="38" t="s">
         <v>581</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>582</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>584</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>585</v>
-      </c>
-      <c r="G80" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="H80" s="38" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="35.25" customHeight="1">
@@ -6563,25 +6562,25 @@
         <v>99</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="35.25" customHeight="1">
@@ -6589,25 +6588,25 @@
         <v>100</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E82" s="38">
         <v>2012</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G82" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="35.25" customHeight="1">
@@ -6615,25 +6614,25 @@
         <v>101</v>
       </c>
       <c r="B83" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="H83" s="35" t="s">
         <v>597</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="D83" s="35" t="s">
-        <v>599</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>600</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="35.25" customHeight="1">
@@ -6641,25 +6640,25 @@
         <v>102</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G84" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="35.25" customHeight="1">
@@ -6667,25 +6666,25 @@
         <v>103</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C85" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="D85" s="35" t="s">
         <v>605</v>
       </c>
-      <c r="D85" s="35" t="s">
-        <v>611</v>
-      </c>
       <c r="E85" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="G85" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H85" s="37" t="s">
         <v>607</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="H85" s="37" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="35.25" customHeight="1">
@@ -6693,25 +6692,25 @@
         <v>104</v>
       </c>
       <c r="B86" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>609</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="G86" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="H86" s="35" t="s">
         <v>614</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="D86" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="F86" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="H86" s="35" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="35.25" customHeight="1">
@@ -6719,25 +6718,25 @@
         <v>105</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="35.25" customHeight="1">
@@ -6745,25 +6744,25 @@
         <v>106</v>
       </c>
       <c r="B88" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="F88" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="H88" s="38" t="s">
         <v>627</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>628</v>
-      </c>
-      <c r="D88" s="35" t="s">
-        <v>629</v>
-      </c>
-      <c r="E88" s="38" t="s">
-        <v>630</v>
-      </c>
-      <c r="F88" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="G88" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="H88" s="38" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="35.25" customHeight="1">
@@ -6771,25 +6770,25 @@
         <v>107</v>
       </c>
       <c r="B89" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="E89" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="F89" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="H89" s="35" t="s">
         <v>634</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="D89" s="35" t="s">
-        <v>636</v>
-      </c>
-      <c r="E89" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="F89" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="G89" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="H89" s="35" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="35.25" customHeight="1">
@@ -6797,25 +6796,25 @@
         <v>108</v>
       </c>
       <c r="B90" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="F90" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="G90" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="H90" s="37" t="s">
         <v>641</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>642</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>643</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>644</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>645</v>
-      </c>
-      <c r="G90" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="H90" s="37" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="35.25" customHeight="1">
@@ -6823,25 +6822,25 @@
         <v>109</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G91" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="35.25" customHeight="1">
@@ -6849,25 +6848,25 @@
         <v>110</v>
       </c>
       <c r="B92" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>650</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="H92" s="37" t="s">
         <v>654</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>657</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="F92" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="G92" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="H92" s="37" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="35.25" customHeight="1">
@@ -6875,25 +6874,25 @@
         <v>111</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="35.25" customHeight="1">
@@ -6901,25 +6900,25 @@
         <v>112</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F94" s="35" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="35.25" customHeight="1">
@@ -6927,25 +6926,25 @@
         <v>113</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F95" s="35" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="G95" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="35.25" customHeight="1">
@@ -6953,25 +6952,25 @@
         <v>114</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F96" s="38" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G96" s="38" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="35.25" customHeight="1">
@@ -6979,25 +6978,25 @@
         <v>115</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="35.25" customHeight="1">
@@ -7005,25 +7004,25 @@
         <v>116</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F98" s="35" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="G98" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="35.25" customHeight="1">
@@ -7031,25 +7030,25 @@
         <v>117</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G99" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H99" s="35" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="35.25" customHeight="1">
@@ -7057,25 +7056,25 @@
         <v>118</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="D100" s="35" t="s">
+        <v>692</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="F100" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H100" s="35" t="s">
         <v>699</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>705</v>
-      </c>
-      <c r="F100" s="35" t="s">
-        <v>701</v>
-      </c>
-      <c r="G100" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="H100" s="35" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="35.25" customHeight="1">
@@ -7083,25 +7082,25 @@
         <v>119</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F101" s="35" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G101" s="38" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="35.25" customHeight="1">
@@ -7109,25 +7108,25 @@
         <v>120</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F102" s="38" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="G102" s="38" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="H102" s="38" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/builtin/资深玩家再进化1.xlsx
+++ b/xlsx/builtin/资深玩家再进化1.xlsx
@@ -972,9 +972,6 @@
     <t>R星恶趣味</t>
   </si>
   <si>
-    <t>我曾经XXX直到我膝盖中了一箭出自</t>
-  </si>
-  <si>
     <t xml:space="preserve">魔兽世界 </t>
   </si>
   <si>
@@ -1214,9 +1211,6 @@
     <t>被锁住的心脏</t>
   </si>
   <si>
-    <t>2GTA5欢乐女神像的原型是</t>
-  </si>
-  <si>
     <t>奥巴马</t>
   </si>
   <si>
@@ -1392,9 +1386,6 @@
     <t>解析一位已过世玩家 过世时等级237</t>
   </si>
   <si>
-    <t>彩虹六号中打到人质摸起来后继续打到会显示什么</t>
-  </si>
-  <si>
     <t>平民受伤</t>
   </si>
   <si>
@@ -1410,9 +1401,6 @@
     <t>打倒人质后摸起来再打倒，右边的分数提示会从原来的「Civillian Injury -100」变成「You Monster -100」</t>
   </si>
   <si>
-    <t>无主之地中乱入了那款游戏</t>
-  </si>
-  <si>
     <t>我的世界</t>
   </si>
   <si>
@@ -1601,9 +1589,6 @@
     <t>一个问号，是提出了一个问题，一个不需要对手回答的问题。一个问号，是发出了一次嘲讽，一次技不如人、甘拜下风的嘲讽。</t>
   </si>
   <si>
-    <t>在LOL中一下那个彩蛋对实际效果没有影响</t>
-  </si>
-  <si>
     <t>均衡三人组</t>
   </si>
   <si>
@@ -1740,9 +1725,6 @@
     <t>炉石传说中腐化灰熊 致敬了哪一位演员</t>
   </si>
   <si>
-    <t>莱昂多纳</t>
-  </si>
-  <si>
     <t>小李子</t>
   </si>
   <si>
@@ -1756,761 +1738,786 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>植物大战僵尸中 种树多少英尺输入代码可以让僵尸被杀之后掉花</t>
+  </si>
+  <si>
+    <t>99英尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉石传说中南海畸变船长致敬了哪一部影片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星际海盗 </t>
+  </si>
+  <si>
+    <t>飞利浦船长</t>
+  </si>
+  <si>
+    <t>大海盗</t>
+  </si>
+  <si>
+    <t>加勒比海盗</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《加勒比海盗》戴维琼斯的飞翔的荷兰人号。如果你落入他的幽灵船，你有两个选择，要么死，要么在他船上为他卖命100年……</t>
+  </si>
+  <si>
+    <t>炉石传说中黑暗鸦人致敬哪一位诗人</t>
+  </si>
+  <si>
+    <t>李白</t>
+  </si>
+  <si>
+    <t>莎士比亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顾城 </t>
+  </si>
+  <si>
+    <t>郭沫若</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑夜给了它黑色的眼睛他却用来寻找古神。出自现代诗人顾城的作品《一代人》</t>
+  </si>
+  <si>
+    <t>猎人职业卡兽群呼唤致敬了那一首歌曲</t>
+  </si>
+  <si>
+    <t>梁文音《三个愿望》</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周杰伦听妈妈的话 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">梁静茹暖暖 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽野弘之 《aLIEz》</t>
+  </si>
+  <si>
+    <t>卡牌描述</t>
+  </si>
+  <si>
+    <t>炉石传说中畸变狂战士引用了那位哲学家的话语</t>
+  </si>
+  <si>
+    <t>泰勒斯</t>
+  </si>
+  <si>
+    <t>笛卡尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尼采 </t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>法国哲学家笛卡尔：我思故我在。</t>
+  </si>
+  <si>
+    <t>炉石传说中盗贼职业卡菊花茶引用了那句广告语</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弹弹弹弹走鱼尾纹 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">自打吃了盖中盖腰不酸了腿不疼了 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼还收脑白金</t>
+  </si>
+  <si>
+    <t>怕上火喝正宗凉茶</t>
+  </si>
+  <si>
+    <t>卡牌描述喝了菊花茶，腰不酸腿不疼，连击起来更带劲</t>
+  </si>
+  <si>
+    <t>炉石传说中萨满职业卡进化之主致敬了哪一部游戏</t>
+  </si>
+  <si>
+    <t>口袋妖怪</t>
+  </si>
+  <si>
+    <t>红色警戒 D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 解析卡牌描述崭新游戏炉石宝贝中一定会大方异彩</t>
+  </si>
+  <si>
+    <t>炉石传说中末日降临卡牌描述中的彩蛋是什么</t>
+  </si>
+  <si>
+    <t>1001.9.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001.9.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌描述古往今来总有人在哪念叨末日论，可我们现在不是还活的好好的？</t>
+  </si>
+  <si>
+    <t>炉石传说中惊骇恐魔致敬了哪一部影片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西游记 </t>
+  </si>
+  <si>
+    <t>大话西游之仙履奇缘</t>
+  </si>
+  <si>
+    <t>魁拔</t>
+  </si>
+  <si>
+    <t>梦之安魂曲</t>
+  </si>
+  <si>
+    <t>卡牌描述长得丑并不是他的错，但是出来吓人就是它的不对了</t>
+  </si>
+  <si>
+    <t>炉石中畸变龙鹰调侃了那件事</t>
+  </si>
+  <si>
+    <t>我爸是李刚</t>
+  </si>
+  <si>
+    <t>主要看气质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切糕</t>
+  </si>
+  <si>
+    <t>茶叶蛋</t>
+  </si>
+  <si>
+    <t>解析卡牌描述人们说外形不重要主要看气质，可他们看过畸变龙樱就不会这么想了真的好恶心。</t>
+  </si>
+  <si>
+    <t>炉石传说中阴暗钓鱼王引用了那位大思想家的言论</t>
+  </si>
+  <si>
+    <t>老子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">孔子 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《论语》子曰：三军可夺帅也，匹夫不可夺志也。</t>
+  </si>
+  <si>
+    <t>炉石传说中范达尔鹿盔的卡牌描述引用了鲁迅笔下那位人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闰土</t>
+  </si>
+  <si>
+    <t>祥林嫂</t>
+  </si>
+  <si>
+    <t>猹</t>
+  </si>
+  <si>
+    <t>卡牌描述出处鲁迅小说《祝福》中祥林嫂的形象。喜欢絮絮叨叨重复那些别人不爱听的故事。</t>
+  </si>
+  <si>
+    <t>炉石传说中亚煞姬印记 引用了那位神话角色</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如来佛祖 </t>
+  </si>
+  <si>
+    <t>波塞冬</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析美杜莎在希腊神话中是一个蛇发女妖的形象，为了复仇甘愿用美貌换取力量，与卡牌描述一致</t>
+  </si>
+  <si>
+    <t>炉石传说中上古之神的小精灵致敬了哪一个小品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卖拐 </t>
+  </si>
+  <si>
+    <t>打工奇遇</t>
+  </si>
+  <si>
+    <t>午夜电话亭</t>
+  </si>
+  <si>
+    <t>送礼</t>
+  </si>
+  <si>
+    <t>小品中对普通食材冠以宫廷而身价暴涨的宰客现象大加鞭挞与卡牌描述一致</t>
+  </si>
+  <si>
+    <t>炉石传说中的远古融合引用哪一个广告</t>
+  </si>
+  <si>
+    <t>G&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丰田汽车 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">京都念慈庵 </t>
+  </si>
+  <si>
+    <t>脑白金</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌描述直接写的</t>
+  </si>
+  <si>
+    <t>炉石传说中卡拉克西织珀者引用了那所学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北大 </t>
+  </si>
+  <si>
+    <t>黄冈中学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东蓝翔 </t>
+  </si>
+  <si>
+    <t>哈佛</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊的职业技校，你们懂得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉石传说中泥潭守护者引用了哪一个俗语</t>
+  </si>
+  <si>
+    <t>金窝银窝不如自己的狗窝</t>
+  </si>
+  <si>
+    <t>山是一步一步登上来的</t>
+  </si>
+  <si>
+    <t>久住坡,不嫌陡</t>
+  </si>
+  <si>
+    <t>马看牙板,人看言行</t>
+  </si>
+  <si>
+    <t>炉石传说中寄生感染致敬了那部电影</t>
+  </si>
+  <si>
+    <t>异形</t>
+  </si>
+  <si>
+    <t>死神来了</t>
+  </si>
+  <si>
+    <t>美国科幻电影《异形》系列，经常有异形生物寄宿人体的情节。</t>
+  </si>
+  <si>
+    <t>炉石传说中伊利丹碰到玛法里奥会说什么</t>
+  </si>
+  <si>
+    <t>泰兰德是我的</t>
+  </si>
+  <si>
+    <t>你们这是自寻死路</t>
+  </si>
+  <si>
+    <t>感受着被囚禁一万年的愤怒吧</t>
+  </si>
+  <si>
+    <t>你好啊 哥哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好啊 哥哥 解析微笑中透露着一丝mmp</t>
+  </si>
+  <si>
+    <t>老牛碰到战士会说什么</t>
+  </si>
+  <si>
+    <t>加尔鲁什，你不配统治部落</t>
+  </si>
+  <si>
+    <t>我爱你小吼</t>
+  </si>
+  <si>
+    <t>你父亲是个英雄，而你不是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你好啊 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMMMMMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉石传说中沃金碰到加尔鲁什会说什么</t>
+  </si>
+  <si>
+    <t>现在看，谁才是真正的酋长</t>
+  </si>
+  <si>
+    <t>你真是愧对你的父亲</t>
+  </si>
+  <si>
+    <t>话说沃金是WOW3中唯一个你一直点他他不会骂你也不会态度不好的角色</t>
+  </si>
+  <si>
+    <t>芬利在炉石传说中利碰到摩戈尔会说什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊呜啊呜啊呜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呜啦呜啦呜啦 </t>
+  </si>
+  <si>
+    <t>你的祖宗都是鱼人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好老朋友 打完这把去喝杯下午茶怎么样</t>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竟然不说鱼人语。</t>
+  </si>
+  <si>
+    <t>炉石传说中瓦王碰到安度因会说什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安度因，你的技巧越来越娴熟了</t>
+  </si>
+  <si>
+    <t>安度因你会成为一个好国王</t>
+  </si>
+  <si>
+    <t>你是我的骄傲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">做国王该做的事 </t>
+  </si>
+  <si>
+    <t>这么说人家会害羞的啦~</t>
+  </si>
+  <si>
+    <t>DOTA2中斧王作为亲儿子没有被V社安排什么任务</t>
+  </si>
+  <si>
+    <t>Dota 2测试初期专门负责招募测试员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推出Test版本后变成了老学者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dota 2饰品代言人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测后前两个大版本更新的重磅图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是公测后第一个大版本更新的重磅图同时第一个手办也是斧王的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOTA2树精卫士背部写着到此一游是谁刻上去的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力丸</t>
+  </si>
+  <si>
+    <t>赏金</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKI WAS HERE（力丸到此一游）</t>
+  </si>
+  <si>
+    <t>dota2中为什么军团会对会对每个有坐骑的英雄说，我喜欢你的坐骑，还会对所有长胡子的英雄说，胡子不错</t>
+  </si>
+  <si>
+    <t>她的个人爱好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">变身大佬 </t>
+  </si>
+  <si>
+    <t>受人所指</t>
+  </si>
+  <si>
+    <t>再找一个神秘人</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotA到Dota 2，从原来骑马的大胡子大叔变成了自带BGM的女汉子(性取向有没有变呢？)</t>
+  </si>
+  <si>
+    <t>dota2中工程师：有句配音是“Who said we couldn't count to three, huh?（谁说我们数不到三的？想表达什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无主之地有3 </t>
+  </si>
+  <si>
+    <t>传送门有3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半条命有3 </t>
+  </si>
+  <si>
+    <t>以上都没有第三作</t>
+  </si>
+  <si>
+    <t>你倒是数啊</t>
+  </si>
+  <si>
+    <t>dota2中那个英雄越受伤 站的越直</t>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个英雄残血的时候都有不同的受伤表现，只有神灵例外，满血腰弯着，越残血越站的直</t>
+  </si>
+  <si>
+    <t>dota2中CM至宝召唤出来的狗会不会游泳</t>
+  </si>
+  <si>
+    <t>会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本是会的但国服没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有国服会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在河道中行动方式为狗刨，出水后还会抖下</t>
+  </si>
+  <si>
+    <t>DOTA2美杜莎的箭，在水上的倒影是什么</t>
+  </si>
+  <si>
+    <t>箭</t>
+  </si>
+  <si>
+    <t>无倒影</t>
+  </si>
+  <si>
+    <t>蛇的牙齿</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解析美杜莎的箭，水面的倒影是一条蛇 / </t>
+  </si>
+  <si>
+    <t>DOTA2中死灵龙在河道会怎么样</t>
+  </si>
+  <si>
+    <t>没有影子</t>
+  </si>
+  <si>
+    <t>走的变慢</t>
+  </si>
+  <si>
+    <t>更暴躁</t>
+  </si>
+  <si>
+    <t>走的更快</t>
+  </si>
+  <si>
+    <t>因为他是冥届守卫</t>
+  </si>
+  <si>
+    <t>DOTA2与其感慨路难行，不如马上出发是谁的语音</t>
+  </si>
+  <si>
+    <t>克林克兹</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>TB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺有意思的一句话</t>
+  </si>
+  <si>
+    <t>用布隆喂魄罗</t>
+  </si>
+  <si>
+    <t>不理魄罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂投食</t>
+  </si>
+  <si>
+    <t>用娜美喂魄罗</t>
+  </si>
+  <si>
+    <t>会出现大胡子</t>
+  </si>
+  <si>
+    <t>英雄联盟中英雄联盟中植物大战僵尸彩蛋是个英雄间的</t>
+  </si>
+  <si>
+    <t>塞恩杀死捷拉</t>
+  </si>
+  <si>
+    <t>婕拉和大树</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大树和老鼠 </t>
+  </si>
+  <si>
+    <t>老鼠和婕拉</t>
+  </si>
+  <si>
+    <t>互相击杀多两金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟中小鱼人的大招不会吃掉谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">提莫 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">维嘉 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">安妮 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮娘</t>
+  </si>
+  <si>
+    <t>可能有毒吧</t>
+  </si>
+  <si>
+    <t>英雄联盟中小鱼人的大招不会吃掉谁？</t>
+  </si>
+  <si>
+    <t>大发明家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安妮 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能头太大了</t>
+  </si>
+  <si>
+    <t>英雄联盟中曙光女神被动对有墨镜的英雄造成伤害时会怎么样</t>
+  </si>
+  <si>
+    <t>免疫伤害</t>
+  </si>
+  <si>
+    <t>嘲讽曙光女神</t>
+  </si>
+  <si>
+    <t>减伤</t>
+  </si>
+  <si>
+    <t>不会发生啥</t>
+  </si>
+  <si>
+    <t>减伤2不过墨镜皮肤都丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟中小鱼人的大招不会留下尸体是真的吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实是BUG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会吃掉一些约德尔人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎空</t>
+  </si>
+  <si>
+    <t>最爱吃猎空什么鬼啦</t>
+  </si>
+  <si>
+    <t>巫师三中杰洛特每次召妓后，会发生什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿Q </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集10个蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地求生中平底锅为什么能挡子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟中英雄联盟的大乱斗模式中如何制造出不一样的魄罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在LOL中以下那个彩蛋对实际效果没有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奥斯卡影帝莱昂纳多的影片《荒野猎人》中莱昂纳多被灰熊实力非礼的故事。</t>
-  </si>
-  <si>
-    <t>植物大战僵尸中 种树多少英尺输入代码可以让僵尸被杀之后掉花</t>
-  </si>
-  <si>
-    <t>99英尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉石传说中南海畸变船长致敬了哪一部影片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星际海盗 </t>
-  </si>
-  <si>
-    <t>飞利浦船长</t>
-  </si>
-  <si>
-    <t>大海盗</t>
-  </si>
-  <si>
-    <t>加勒比海盗</t>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《加勒比海盗》戴维琼斯的飞翔的荷兰人号。如果你落入他的幽灵船，你有两个选择，要么死，要么在他船上为他卖命100年……</t>
-  </si>
-  <si>
-    <t>炉石传说中黑暗鸦人致敬哪一位诗人</t>
-  </si>
-  <si>
-    <t>李白</t>
-  </si>
-  <si>
-    <t>莎士比亚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">顾城 </t>
-  </si>
-  <si>
-    <t>郭沫若</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑夜给了它黑色的眼睛他却用来寻找古神。出自现代诗人顾城的作品《一代人》</t>
-  </si>
-  <si>
-    <t>猎人职业卡兽群呼唤致敬了那一首歌曲</t>
-  </si>
-  <si>
-    <t>梁文音《三个愿望》</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周杰伦听妈妈的话 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">梁静茹暖暖 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽野弘之 《aLIEz》</t>
-  </si>
-  <si>
-    <t>卡牌描述</t>
-  </si>
-  <si>
-    <t>炉石传说中畸变狂战士引用了那位哲学家的话语</t>
-  </si>
-  <si>
-    <t>泰勒斯</t>
-  </si>
-  <si>
-    <t>笛卡尔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">尼采 </t>
-  </si>
-  <si>
-    <t>马克思</t>
-  </si>
-  <si>
-    <t>法国哲学家笛卡尔：我思故我在。</t>
-  </si>
-  <si>
-    <t>炉石传说中盗贼职业卡菊花茶引用了那句广告语</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弹弹弹弹走鱼尾纹 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">自打吃了盖中盖腰不酸了腿不疼了 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收礼还收脑白金</t>
-  </si>
-  <si>
-    <t>怕上火喝正宗凉茶</t>
-  </si>
-  <si>
-    <t>卡牌描述喝了菊花茶，腰不酸腿不疼，连击起来更带劲</t>
-  </si>
-  <si>
-    <t>炉石传说中萨满职业卡进化之主致敬了哪一部游戏</t>
-  </si>
-  <si>
-    <t>口袋妖怪</t>
-  </si>
-  <si>
-    <t>红色警戒 D</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 解析卡牌描述崭新游戏炉石宝贝中一定会大方异彩</t>
-  </si>
-  <si>
-    <t>炉石传说中末日降临卡牌描述中的彩蛋是什么</t>
-  </si>
-  <si>
-    <t>1001.9.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001.9.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌描述古往今来总有人在哪念叨末日论，可我们现在不是还活的好好的？</t>
-  </si>
-  <si>
-    <t>炉石传说中惊骇恐魔致敬了哪一部影片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西游记 </t>
-  </si>
-  <si>
-    <t>大话西游之仙履奇缘</t>
-  </si>
-  <si>
-    <t>魁拔</t>
-  </si>
-  <si>
-    <t>梦之安魂曲</t>
-  </si>
-  <si>
-    <t>卡牌描述长得丑并不是他的错，但是出来吓人就是它的不对了</t>
-  </si>
-  <si>
-    <t>炉石中畸变龙鹰调侃了那件事</t>
-  </si>
-  <si>
-    <t>我爸是李刚</t>
-  </si>
-  <si>
-    <t>主要看气质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切糕</t>
-  </si>
-  <si>
-    <t>茶叶蛋</t>
-  </si>
-  <si>
-    <t>解析卡牌描述人们说外形不重要主要看气质，可他们看过畸变龙樱就不会这么想了真的好恶心。</t>
-  </si>
-  <si>
-    <t>炉石传说中阴暗钓鱼王引用了那位大思想家的言论</t>
-  </si>
-  <si>
-    <t>老子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">孔子 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尼采</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《论语》子曰：三军可夺帅也，匹夫不可夺志也。</t>
-  </si>
-  <si>
-    <t>炉石传说中范达尔鹿盔的卡牌描述引用了鲁迅笔下那位人物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闰土</t>
-  </si>
-  <si>
-    <t>祥林嫂</t>
-  </si>
-  <si>
-    <t>猹</t>
-  </si>
-  <si>
-    <t>卡牌描述出处鲁迅小说《祝福》中祥林嫂的形象。喜欢絮絮叨叨重复那些别人不爱听的故事。</t>
-  </si>
-  <si>
-    <t>炉石传说中亚煞姬印记 引用了那位神话角色</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">如来佛祖 </t>
-  </si>
-  <si>
-    <t>波塞冬</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析美杜莎在希腊神话中是一个蛇发女妖的形象，为了复仇甘愿用美貌换取力量，与卡牌描述一致</t>
-  </si>
-  <si>
-    <t>炉石传说中上古之神的小精灵致敬了哪一个小品</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卖拐 </t>
-  </si>
-  <si>
-    <t>打工奇遇</t>
-  </si>
-  <si>
-    <t>午夜电话亭</t>
-  </si>
-  <si>
-    <t>送礼</t>
-  </si>
-  <si>
-    <t>小品中对普通食材冠以宫廷而身价暴涨的宰客现象大加鞭挞与卡牌描述一致</t>
-  </si>
-  <si>
-    <t>炉石传说中的远古融合引用哪一个广告</t>
-  </si>
-  <si>
-    <t>G&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">丰田汽车 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">京都念慈庵 </t>
-  </si>
-  <si>
-    <t>脑白金</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌描述直接写的</t>
-  </si>
-  <si>
-    <t>炉石传说中卡拉克西织珀者引用了那所学校</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北大 </t>
-  </si>
-  <si>
-    <t>黄冈中学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山东蓝翔 </t>
-  </si>
-  <si>
-    <t>哈佛</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊的职业技校，你们懂得。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉石传说中泥潭守护者引用了哪一个俗语</t>
-  </si>
-  <si>
-    <t>金窝银窝不如自己的狗窝</t>
-  </si>
-  <si>
-    <t>山是一步一步登上来的</t>
-  </si>
-  <si>
-    <t>久住坡,不嫌陡</t>
-  </si>
-  <si>
-    <t>马看牙板,人看言行</t>
-  </si>
-  <si>
-    <t>炉石传说中寄生感染致敬了那部电影</t>
-  </si>
-  <si>
-    <t>异形</t>
-  </si>
-  <si>
-    <t>死神来了</t>
-  </si>
-  <si>
-    <t>美国科幻电影《异形》系列，经常有异形生物寄宿人体的情节。</t>
-  </si>
-  <si>
-    <t>炉石传说中伊利丹碰到玛法里奥会说什么</t>
-  </si>
-  <si>
-    <t>泰兰德是我的</t>
-  </si>
-  <si>
-    <t>你们这是自寻死路</t>
-  </si>
-  <si>
-    <t>感受着被囚禁一万年的愤怒吧</t>
-  </si>
-  <si>
-    <t>你好啊 哥哥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好啊 哥哥 解析微笑中透露着一丝mmp</t>
-  </si>
-  <si>
-    <t>老牛碰到战士会说什么</t>
-  </si>
-  <si>
-    <t>加尔鲁什，你不配统治部落</t>
-  </si>
-  <si>
-    <t>我爱你小吼</t>
-  </si>
-  <si>
-    <t>你父亲是个英雄，而你不是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你好啊 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMMMMMM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炉石传说中沃金碰到加尔鲁什会说什么</t>
-  </si>
-  <si>
-    <t>现在看，谁才是真正的酋长</t>
-  </si>
-  <si>
-    <t>你真是愧对你的父亲</t>
-  </si>
-  <si>
-    <t>话说沃金是WOW3中唯一个你一直点他他不会骂你也不会态度不好的角色</t>
-  </si>
-  <si>
-    <t>芬利在炉石传说中利碰到摩戈尔会说什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊呜啊呜啊呜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呜啦呜啦呜啦 </t>
-  </si>
-  <si>
-    <t>你的祖宗都是鱼人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好老朋友 打完这把去喝杯下午茶怎么样</t>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竟然不说鱼人语。</t>
-  </si>
-  <si>
-    <t>炉石传说中瓦王碰到安度因会说什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安度因，你的技巧越来越娴熟了</t>
-  </si>
-  <si>
-    <t>安度因你会成为一个好国王</t>
-  </si>
-  <si>
-    <t>你是我的骄傲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">做国王该做的事 </t>
-  </si>
-  <si>
-    <t>这么说人家会害羞的啦~</t>
-  </si>
-  <si>
-    <t>DOTA2中斧王作为亲儿子没有被V社安排什么任务</t>
-  </si>
-  <si>
-    <t>Dota 2测试初期专门负责招募测试员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推出Test版本后变成了老学者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dota 2饰品代言人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测后前两个大版本更新的重磅图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只是公测后第一个大版本更新的重磅图同时第一个手办也是斧王的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOTA2树精卫士背部写着到此一游是谁刻上去的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力丸</t>
-  </si>
-  <si>
-    <t>赏金</t>
-  </si>
-  <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKI WAS HERE（力丸到此一游）</t>
-  </si>
-  <si>
-    <t>dota2中为什么军团会对会对每个有坐骑的英雄说，我喜欢你的坐骑，还会对所有长胡子的英雄说，胡子不错</t>
-  </si>
-  <si>
-    <t>她的个人爱好</t>
-  </si>
-  <si>
-    <t xml:space="preserve">变身大佬 </t>
-  </si>
-  <si>
-    <t>受人所指</t>
-  </si>
-  <si>
-    <t>再找一个神秘人</t>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotA到Dota 2，从原来骑马的大胡子大叔变成了自带BGM的女汉子(性取向有没有变呢？)</t>
-  </si>
-  <si>
-    <t>dota2中工程师：有句配音是“Who said we couldn't count to three, huh?（谁说我们数不到三的？想表达什么</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无主之地有3 </t>
-  </si>
-  <si>
-    <t>传送门有3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">半条命有3 </t>
-  </si>
-  <si>
-    <t>以上都没有第三作</t>
-  </si>
-  <si>
-    <t>你倒是数啊</t>
-  </si>
-  <si>
-    <t>dota2中那个英雄越受伤 站的越直</t>
-  </si>
-  <si>
-    <t>CM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个英雄残血的时候都有不同的受伤表现，只有神灵例外，满血腰弯着，越残血越站的直</t>
-  </si>
-  <si>
-    <t>dota2中CM至宝召唤出来的狗会不会游泳</t>
-  </si>
-  <si>
-    <t>会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原本是会的但国服没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有国服会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在河道中行动方式为狗刨，出水后还会抖下</t>
-  </si>
-  <si>
-    <t>DOTA2美杜莎的箭，在水上的倒影是什么</t>
-  </si>
-  <si>
-    <t>箭</t>
-  </si>
-  <si>
-    <t>无倒影</t>
-  </si>
-  <si>
-    <t>蛇的牙齿</t>
-  </si>
-  <si>
-    <t>蛇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解析美杜莎的箭，水面的倒影是一条蛇 / </t>
-  </si>
-  <si>
-    <t>DOTA2中死灵龙在河道会怎么样</t>
-  </si>
-  <si>
-    <t>没有影子</t>
-  </si>
-  <si>
-    <t>走的变慢</t>
-  </si>
-  <si>
-    <t>更暴躁</t>
-  </si>
-  <si>
-    <t>走的更快</t>
-  </si>
-  <si>
-    <t>因为他是冥届守卫</t>
-  </si>
-  <si>
-    <t>DOTA2与其感慨路难行，不如马上出发是谁的语音</t>
-  </si>
-  <si>
-    <t>克林克兹</t>
-  </si>
-  <si>
-    <t>火枪</t>
-  </si>
-  <si>
-    <t>TB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挺有意思的一句话</t>
-  </si>
-  <si>
-    <t>用布隆喂魄罗</t>
-  </si>
-  <si>
-    <t>不理魄罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂投食</t>
-  </si>
-  <si>
-    <t>用娜美喂魄罗</t>
-  </si>
-  <si>
-    <t>会出现大胡子</t>
-  </si>
-  <si>
-    <t>英雄联盟中英雄联盟中植物大战僵尸彩蛋是个英雄间的</t>
-  </si>
-  <si>
-    <t>塞恩杀死捷拉</t>
-  </si>
-  <si>
-    <t>婕拉和大树</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大树和老鼠 </t>
-  </si>
-  <si>
-    <t>老鼠和婕拉</t>
-  </si>
-  <si>
-    <t>互相击杀多两金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄联盟中小鱼人的大招不会吃掉谁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">提莫 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">维嘉 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">安妮 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮娘</t>
-  </si>
-  <si>
-    <t>可能有毒吧</t>
-  </si>
-  <si>
-    <t>英雄联盟中小鱼人的大招不会吃掉谁？</t>
-  </si>
-  <si>
-    <t>大发明家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">安妮 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能头太大了</t>
-  </si>
-  <si>
-    <t>英雄联盟中曙光女神被动对有墨镜的英雄造成伤害时会怎么样</t>
-  </si>
-  <si>
-    <t>免疫伤害</t>
-  </si>
-  <si>
-    <t>嘲讽曙光女神</t>
-  </si>
-  <si>
-    <t>减伤</t>
-  </si>
-  <si>
-    <t>不会发生啥</t>
-  </si>
-  <si>
-    <t>减伤2不过墨镜皮肤都丑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄联盟中小鱼人的大招不会留下尸体是真的吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有些是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其实是BUG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会吃掉一些约德尔人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎空</t>
-  </si>
-  <si>
-    <t>最爱吃猎空什么鬼啦</t>
-  </si>
-  <si>
-    <t>巫师三中杰洛特每次召妓后，会发生什么</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阿Q </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集10个蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝地求生中平底锅为什么能挡子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄联盟中英雄联盟的大乱斗模式中如何制造出不一样的魄罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱昂纳多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无主之地中乱入了哪款游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹六号中打到人质扶起来后继续打倒会显示什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我曾经XXX直到我的膝盖中了一箭出自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTA5欢乐女神像的原型是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4461,14 +4468,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="35.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17" style="22" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="22" customWidth="1"/>
     <col min="3" max="6" width="16.42578125" style="22" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="22" customWidth="1"/>
     <col min="8" max="8" width="115" style="22" customWidth="1"/>
@@ -4534,7 +4541,7 @@
         <v>128</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>135</v>
@@ -4878,7 +4885,7 @@
         <v>216</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>217</v>
@@ -4976,25 +4983,25 @@
         <v>38</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>239</v>
+        <v>718</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>205</v>
       </c>
       <c r="D20" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="F20" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="G20" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="H20" s="35" t="s">
         <v>243</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="35.25" customHeight="1">
@@ -5002,25 +5009,25 @@
         <v>39</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="E21" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="F21" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>249</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H21" s="35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="35.25" customHeight="1">
@@ -5028,25 +5035,25 @@
         <v>40</v>
       </c>
       <c r="B22" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="E22" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="F22" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="G22" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="H22" s="35" t="s">
         <v>256</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="35.25" customHeight="1">
@@ -5054,25 +5061,25 @@
         <v>41</v>
       </c>
       <c r="B23" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="D23" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="E23" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="F23" s="35" t="s">
         <v>261</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>262</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>213</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="35.25" customHeight="1">
@@ -5080,25 +5087,25 @@
         <v>42</v>
       </c>
       <c r="B24" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="D24" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="E24" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="F24" s="35" t="s">
         <v>267</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>268</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>192</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="35.25" customHeight="1">
@@ -5106,25 +5113,25 @@
         <v>43</v>
       </c>
       <c r="B25" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="D25" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="E25" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="F25" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="G25" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="H25" s="37" t="s">
         <v>275</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="35.25" customHeight="1">
@@ -5132,25 +5139,25 @@
         <v>44</v>
       </c>
       <c r="B26" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="D26" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="E26" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="F26" s="35" t="s">
         <v>280</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>281</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>168</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="35.25" customHeight="1">
@@ -5158,25 +5165,25 @@
         <v>45</v>
       </c>
       <c r="B27" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="D27" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="E27" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="F27" s="35" t="s">
         <v>286</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>287</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="35.25" customHeight="1">
@@ -5184,25 +5191,25 @@
         <v>46</v>
       </c>
       <c r="B28" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="D28" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="E28" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="F28" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="G28" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="H28" s="35" t="s">
         <v>294</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="35.25" customHeight="1">
@@ -5210,25 +5217,25 @@
         <v>47</v>
       </c>
       <c r="B29" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="D29" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="E29" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="F29" s="35" t="s">
         <v>299</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>300</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="35.25" customHeight="1">
@@ -5236,7 +5243,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C30" s="35">
         <v>40</v>
@@ -5254,7 +5261,7 @@
         <v>168</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="35.25" customHeight="1">
@@ -5262,25 +5269,25 @@
         <v>49</v>
       </c>
       <c r="B31" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="D31" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="E31" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="F31" s="35" t="s">
         <v>307</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>308</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="35.25" customHeight="1">
@@ -5288,7 +5295,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C32" s="38">
         <v>5</v>
@@ -5306,7 +5313,7 @@
         <v>146</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="35.25" customHeight="1">
@@ -5314,25 +5321,25 @@
         <v>51</v>
       </c>
       <c r="B33" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="D33" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="E33" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="F33" s="35" t="s">
         <v>315</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>316</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>146</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="35.25" customHeight="1">
@@ -5340,25 +5347,25 @@
         <v>52</v>
       </c>
       <c r="B34" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="E34" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="F34" s="35" t="s">
         <v>320</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>322</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>168</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="35.25" customHeight="1">
@@ -5366,25 +5373,25 @@
         <v>53</v>
       </c>
       <c r="B35" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="E35" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="F35" s="35" t="s">
         <v>326</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>328</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>199</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="35.25" customHeight="1">
@@ -5392,25 +5399,25 @@
         <v>54</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C36" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="F36" s="35" t="s">
         <v>331</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>333</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>213</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="35.25" customHeight="1">
@@ -5418,25 +5425,25 @@
         <v>55</v>
       </c>
       <c r="B37" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="E37" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="F37" s="35" t="s">
         <v>337</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>339</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>182</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="35.25" customHeight="1">
@@ -5444,25 +5451,25 @@
         <v>56</v>
       </c>
       <c r="B38" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="E38" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="F38" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="G38" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="H38" s="35" t="s">
         <v>345</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="35.25" customHeight="1">
@@ -5470,25 +5477,25 @@
         <v>57</v>
       </c>
       <c r="B39" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="E39" s="35" t="s">
         <v>349</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="F39" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="G39" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="H39" s="35" t="s">
         <v>352</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="35.25" customHeight="1">
@@ -5496,25 +5503,25 @@
         <v>58</v>
       </c>
       <c r="B40" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="E40" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="F40" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="38" t="s">
+      <c r="G40" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="H40" s="35" t="s">
         <v>359</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="35.25" customHeight="1">
@@ -5522,25 +5529,25 @@
         <v>59</v>
       </c>
       <c r="B41" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="E41" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="F41" s="35" t="s">
         <v>364</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>366</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="35.25" customHeight="1">
@@ -5548,25 +5555,25 @@
         <v>60</v>
       </c>
       <c r="B42" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="E42" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="F42" s="35" t="s">
         <v>370</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>372</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>199</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="35.25" customHeight="1">
@@ -5574,25 +5581,25 @@
         <v>61</v>
       </c>
       <c r="B43" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="F43" s="35" t="s">
         <v>375</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>378</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>139</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="35.25" customHeight="1">
@@ -5600,25 +5607,25 @@
         <v>62</v>
       </c>
       <c r="B44" s="35" t="s">
+        <v>716</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="F44" s="35" t="s">
         <v>380</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>384</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="35.25" customHeight="1">
@@ -5626,25 +5633,25 @@
         <v>63</v>
       </c>
       <c r="B45" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="H45" s="35" t="s">
         <v>387</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="35.25" customHeight="1">
@@ -5652,7 +5659,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C46" s="38">
         <v>20</v>
@@ -5667,10 +5674,10 @@
         <v>99</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H46" s="35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="35.25" customHeight="1">
@@ -5678,7 +5685,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C47" s="38">
         <v>20</v>
@@ -5693,10 +5700,10 @@
         <v>99</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="35.25" customHeight="1">
@@ -5704,7 +5711,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C48" s="38">
         <v>5</v>
@@ -5719,10 +5726,10 @@
         <v>99</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="35.25" customHeight="1">
@@ -5730,25 +5737,25 @@
         <v>67</v>
       </c>
       <c r="B49" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="F49" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="G49" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="H49" s="35" t="s">
         <v>402</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="35.25" customHeight="1">
@@ -5756,25 +5763,25 @@
         <v>68</v>
       </c>
       <c r="B50" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="F50" s="38" t="s">
         <v>407</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>411</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>146</v>
       </c>
       <c r="H50" s="35" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="35.25" customHeight="1">
@@ -5782,25 +5789,25 @@
         <v>69</v>
       </c>
       <c r="B51" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="F51" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="G51" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="H51" s="38" t="s">
         <v>415</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="F51" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="35.25" customHeight="1">
@@ -5808,25 +5815,25 @@
         <v>70</v>
       </c>
       <c r="B52" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="F52" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="G52" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="H52" s="35" t="s">
         <v>422</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="35.25" customHeight="1">
@@ -5834,25 +5841,25 @@
         <v>71</v>
       </c>
       <c r="B53" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="G53" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="H53" s="37" t="s">
         <v>428</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="F53" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="H53" s="37" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="35.25" customHeight="1">
@@ -5860,25 +5867,25 @@
         <v>72</v>
       </c>
       <c r="B54" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="F54" s="37" t="s">
         <v>433</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="G54" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="H54" s="35" t="s">
         <v>434</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>437</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="35.25" customHeight="1">
@@ -5886,25 +5893,25 @@
         <v>73</v>
       </c>
       <c r="B55" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="H55" s="39" t="s">
         <v>440</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="E55" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="35.25" customHeight="1">
@@ -5912,25 +5919,25 @@
         <v>74</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>154</v>
       </c>
       <c r="H56" s="39" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="35.25" customHeight="1">
@@ -5938,25 +5945,25 @@
         <v>75</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="35.25" customHeight="1">
@@ -5964,7 +5971,7 @@
         <v>76</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C58" s="38">
         <v>10</v>
@@ -5982,7 +5989,7 @@
         <v>169</v>
       </c>
       <c r="H58" s="38" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="35.25" customHeight="1">
@@ -5990,19 +5997,19 @@
         <v>77</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>147</v>
@@ -6016,25 +6023,25 @@
         <v>78</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>146</v>
       </c>
       <c r="H60" s="35" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="35.25" customHeight="1">
@@ -6042,7 +6049,7 @@
         <v>79</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C61" s="38">
         <v>90</v>
@@ -6060,7 +6067,7 @@
         <v>168</v>
       </c>
       <c r="H61" s="35" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="35.25" customHeight="1">
@@ -6068,25 +6075,25 @@
         <v>80</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>146</v>
       </c>
       <c r="H62" s="35" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="35.25" customHeight="1">
@@ -6094,25 +6101,25 @@
         <v>81</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="G63" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="H63" s="35" t="s">
         <v>476</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="35.25" customHeight="1">
@@ -6120,25 +6127,25 @@
         <v>82</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>483</v>
+        <v>715</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>488</v>
+        <v>714</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="35.25" customHeight="1">
@@ -6146,7 +6153,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C65" s="38">
         <v>20</v>
@@ -6164,7 +6171,7 @@
         <v>185</v>
       </c>
       <c r="H65" s="38" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="35.25" customHeight="1">
@@ -6172,25 +6179,25 @@
         <v>84</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="35.25" customHeight="1">
@@ -6198,25 +6205,25 @@
         <v>85</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G67" s="38" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="35.25" customHeight="1">
@@ -6224,25 +6231,25 @@
         <v>86</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H68" s="35" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="35.25" customHeight="1">
@@ -6250,25 +6257,25 @@
         <v>87</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>168</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="35.25" customHeight="1">
@@ -6276,25 +6283,25 @@
         <v>88</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>192</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="35.25" customHeight="1">
@@ -6302,25 +6309,25 @@
         <v>89</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G71" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="35.25" customHeight="1">
@@ -6328,25 +6335,25 @@
         <v>90</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C72" s="38">
         <v>2012</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F72" s="38">
         <v>4.1100000000000003</v>
       </c>
       <c r="G72" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="35.25" customHeight="1">
@@ -6354,25 +6361,25 @@
         <v>91</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G73" s="38" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="35.25" customHeight="1">
@@ -6380,25 +6387,25 @@
         <v>92</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F74" s="37" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="35.25" customHeight="1">
@@ -6406,25 +6413,25 @@
         <v>93</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D75" s="38" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="35.25" customHeight="1">
@@ -6432,25 +6439,25 @@
         <v>94</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="35.25" customHeight="1">
@@ -6458,25 +6465,25 @@
         <v>95</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G77" s="38" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="35.25" customHeight="1">
@@ -6484,25 +6491,25 @@
         <v>96</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F78" s="35" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G78" s="38" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H78" s="35" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="35.25" customHeight="1">
@@ -6510,25 +6517,25 @@
         <v>97</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="35.25" customHeight="1">
@@ -6536,25 +6543,25 @@
         <v>98</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="G80" s="38" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H80" s="38" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="35.25" customHeight="1">
@@ -6562,25 +6569,25 @@
         <v>99</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H81" s="35" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="35.25" customHeight="1">
@@ -6588,25 +6595,25 @@
         <v>100</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E82" s="38">
         <v>2012</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>182</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="35.25" customHeight="1">
@@ -6614,25 +6621,25 @@
         <v>101</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G83" s="38" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H83" s="35" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="35.25" customHeight="1">
@@ -6640,25 +6647,25 @@
         <v>102</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>182</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="35.25" customHeight="1">
@@ -6666,25 +6673,25 @@
         <v>103</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C85" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>594</v>
+      </c>
+      <c r="F85" s="35" t="s">
         <v>599</v>
-      </c>
-      <c r="D85" s="35" t="s">
-        <v>605</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>601</v>
-      </c>
-      <c r="F85" s="35" t="s">
-        <v>606</v>
       </c>
       <c r="G85" s="38" t="s">
         <v>169</v>
       </c>
       <c r="H85" s="37" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="35.25" customHeight="1">
@@ -6692,25 +6699,25 @@
         <v>104</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C86" s="35" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D86" s="35" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F86" s="37" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G86" s="38" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H86" s="35" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="35.25" customHeight="1">
@@ -6718,25 +6725,25 @@
         <v>105</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G87" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="35.25" customHeight="1">
@@ -6744,25 +6751,25 @@
         <v>106</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D88" s="35" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F88" s="38" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G88" s="38" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H88" s="38" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="35.25" customHeight="1">
@@ -6770,25 +6777,25 @@
         <v>107</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G89" s="38" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="35.25" customHeight="1">
@@ -6796,25 +6803,25 @@
         <v>108</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F90" s="37" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G90" s="38" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="35.25" customHeight="1">
@@ -6822,25 +6829,25 @@
         <v>109</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F91" s="35" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G91" s="38" t="s">
         <v>139</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="35.25" customHeight="1">
@@ -6848,25 +6855,25 @@
         <v>110</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F92" s="38" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="G92" s="38" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H92" s="37" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="35.25" customHeight="1">
@@ -6874,25 +6881,25 @@
         <v>111</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D93" s="38" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F93" s="38" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="35.25" customHeight="1">
@@ -6900,25 +6907,25 @@
         <v>112</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D94" s="35" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F94" s="35" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="G94" s="38" t="s">
         <v>185</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="35.25" customHeight="1">
@@ -6926,25 +6933,25 @@
         <v>113</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="D95" s="35" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F95" s="35" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="G95" s="38" t="s">
         <v>182</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="35.25" customHeight="1">
@@ -6952,25 +6959,25 @@
         <v>114</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D96" s="38" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F96" s="38" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G96" s="38" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="35.25" customHeight="1">
@@ -6978,25 +6985,25 @@
         <v>115</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C97" s="35" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="D97" s="35" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G97" s="38" t="s">
         <v>146</v>
       </c>
       <c r="H97" s="37" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="35.25" customHeight="1">
@@ -7004,25 +7011,25 @@
         <v>116</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D98" s="35" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F98" s="35" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G98" s="38" t="s">
         <v>147</v>
       </c>
       <c r="H98" s="38" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="35.25" customHeight="1">
@@ -7030,25 +7037,25 @@
         <v>117</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G99" s="38" t="s">
         <v>146</v>
       </c>
       <c r="H99" s="35" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="35.25" customHeight="1">
@@ -7056,25 +7063,25 @@
         <v>118</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D100" s="35" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="F100" s="35" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G100" s="38" t="s">
         <v>182</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="35.25" customHeight="1">
@@ -7082,25 +7089,25 @@
         <v>119</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="D101" s="35" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F101" s="35" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G101" s="38" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H101" s="38" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="35.25" customHeight="1">
@@ -7108,25 +7115,25 @@
         <v>120</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F102" s="38" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G102" s="38" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="H102" s="38" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
